--- a/biology/Botanique/Ononis_reclinata/Ononis_reclinata.xlsx
+++ b/biology/Botanique/Ononis_reclinata/Ononis_reclinata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ononis reclinata, qui a pour nom commun Bugrane penchée, Bugrane à fleurs pendantes[2], est une espèce de plante de la famille des Fabaceae et du genre Ononis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ononis reclinata, qui a pour nom commun Bugrane penchée, Bugrane à fleurs pendantes, est une espèce de plante de la famille des Fabaceae et du genre Ononis.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La bugrane penchée est une plante herbacée annuelle qui atteint une hauteur de 15 centimètres. Les parties aériennes de la plante sont douces et poilues. La tige est dressée ou décombante, simple ou ramifiée.
 Les feuilles sont disposées en alternance sur la tige et se divisent en pétiole et limbe. Les limbes des feuilles sont généralement pennés par trois, seuls les limbes supérieurs sont indivis. Les folioles sont obovales à triangulaires avec une longueur allant jusqu'à 20 mm et une largeur allant jusqu'à 12 mm. Ils ne sont perforés que dans la moitié avant, arrondie ou tronquée. Les stipules sont ovales à bout pointu, dentées et plus courtes que le pétiole.
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ononis reclinata est répandu en Europe, en Afrique du Nord, aux îles Canaries, en Éthiopie, au Proche-Orient jusqu'à l'Iran et dans la péninsule arabique. En Europe, elle habite la région méditerranéenne du nord au sud de la France et du nord de l'Italie.
 Elle  prospère souvent sur les côtes sur des sites secs et rocheux, sur du sable ou des éboulis. Sur la péninsule ibérique, elle s'élève jusqu'à une altitude de 1 000 mètres.
@@ -579,9 +595,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La feuille a pour parasites Gampsocoris punctipes, Phytomyza horticola, Therioaphis obscura (sv), l'oïdium du pois[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille a pour parasites Gampsocoris punctipes, Phytomyza horticola, Therioaphis obscura (sv), l'oïdium du pois.
 </t>
         </is>
       </c>
